--- a/data/Teste.xlsx
+++ b/data/Teste.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
   <si>
     <t xml:space="preserve">Applied filters:
 Month is March
@@ -159,7 +159,7 @@
     <t xml:space="preserve">DSAT_CSAT</t>
   </si>
   <si>
-    <t xml:space="preserve">Heineken or Unisys?</t>
+    <t xml:space="preserve">company?</t>
   </si>
   <si>
     <t xml:space="preserve">Month_Num</t>
@@ -273,67 +273,73 @@
     <t xml:space="preserve">Open by 2</t>
   </si>
   <si>
-    <t xml:space="preserve">AINST123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INC123456</t>
+    <t xml:space="preserve">AINST1234769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AINST321654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC32164</t>
   </si>
   <si>
     <t xml:space="preserve">incident</t>
   </si>
   <si>
-    <t xml:space="preserve">Heineken - Incidents survey (short)</t>
+    <t xml:space="preserve">Teste - Incidents survey (short)</t>
   </si>
   <si>
     <t xml:space="preserve">Complete</t>
   </si>
   <si>
+    <t xml:space="preserve">Alex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alex@teste.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osasco Distribution Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southeast Direct Sales - Sacoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grupo teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InteliServe-Telephony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09-W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incident: INC321654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerenciamento de Acessos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How would you rate the overall experience with the handling of your incident?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elogio teste</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alex</t>
   </si>
   <si>
-    <t xml:space="preserve">alex@teste.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osasco Distribution Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southeast Direct Sales - Sacoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service Desk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grupo teste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heineken do Brasil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InteliServe-Telephony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09-W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incident: INC123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerenciamento de Acessos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How would you rate the overall experience with the handling of your incident?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elogio teste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEINEKEN</t>
+    <t xml:space="preserve">BRASIL</t>
   </si>
   <si>
     <t xml:space="preserve">What influenced your rating?</t>
@@ -351,7 +357,7 @@
     <t xml:space="preserve">CSAT</t>
   </si>
   <si>
-    <t xml:space="preserve">UIS</t>
+    <t xml:space="preserve">BR</t>
   </si>
   <si>
     <t xml:space="preserve">03-March</t>
@@ -372,7 +378,7 @@
     <t xml:space="preserve">Other_Week</t>
   </si>
   <si>
-    <t xml:space="preserve">Analista teste</t>
+    <t xml:space="preserve">User Test</t>
   </si>
   <si>
     <t xml:space="preserve">Marcel</t>
@@ -403,6 +409,9 @@
   </si>
   <si>
     <t xml:space="preserve">Level 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User test</t>
   </si>
 </sst>
 </file>
@@ -576,7 +585,7 @@
     <tableColumn id="41" name="Question6"/>
     <tableColumn id="42" name="Created By"/>
     <tableColumn id="43" name="DSAT_CSAT"/>
-    <tableColumn id="44" name="Heineken or Unisys?"/>
+    <tableColumn id="44" name="company?"/>
     <tableColumn id="45" name="Month_Num"/>
     <tableColumn id="46" name="Region"/>
     <tableColumn id="47" name="Value_3"/>
@@ -1058,182 +1067,182 @@
         <v>82</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>2025</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="V4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z4" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>6</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AK4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU4" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX4" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY4" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="BA4" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="AL4" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM4" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN4" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO4" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ4" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR4" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS4" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU4" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV4" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX4" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY4" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ4" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA4" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="BB4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC4" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD4" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="BE4" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BF4" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BG4" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BH4" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BI4" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BJ4" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BK4" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BL4" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BM4" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BN4" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BO4" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BP4" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="CB4" s="0" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
